--- a/temp_output.xlsx
+++ b/temp_output.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6074 +422,7034 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Href</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Chapter c-1 Cultivation Beyond Godhood Contains Heavy Spoilers</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chapter 1: "You called the police on me!?" (1)</t>
+          <t>Chapter 9 Daddy Konrad Makes Money</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-1-you-called-the-police-on-me-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-16</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chapter 16: She is your mother!?</t>
+          <t>Chapter 24 Then Teach You I Shall R-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-16-she-is-your-mother</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chapter 31: Waterfront District</t>
+          <t>Chapter 39 Are You Willing?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-31-waterfront-district</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-46</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chapter 46 The End of One Battle, the Start of Another (2)</t>
+          <t>Chapter 54 First Part: Extermination</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-46-the-end-of-one-battle-the-start-of-another-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-61</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chapter 61 Tricking Leng Mei (2)</t>
+          <t>Chapter 69 Abused Servant R-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-61-tricking-leng-mei-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-76</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chapter 76 Yu Lei’s plans (1)</t>
+          <t>Chapter 84 Callous Inquisitress</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-76-yu-leis-plans-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chapter 91 Xie Meirong - The Artist!</t>
+          <t>Chapter 99 Anselms Surrender</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-91-xie-meirong-the-artist</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-106</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chapter 106 Wu Xue and Bonus Mission!</t>
+          <t>Chapter 114 Returning to the Inner Court Part 2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-106-wu-xue-and-bonus-mission</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-121</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chapter 121 Feng Ruoyan!</t>
+          <t>Chapter 129 Konrad vs. Yvonne Part 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-121-feng-ruoyan</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-136</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chapter 136 *In the bureau* (2)</t>
+          <t>Chapter 144 Blood Orchids</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-136-in-the-bureau-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-151</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chapter 151 Chaos in Wang Family (4)</t>
+          <t>Chapter 159 Please Reconsider!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-151-chaos-in-wang-family-4</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-166</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chapter 166 Surrounded by fairies? Entered Heaven!</t>
+          <t>Chapter 174 Rune Carving</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-166-surrounded-by-fairies-entered-heaven</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-181</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chapter 181 Song Shoushan’s strange behaviour!</t>
+          <t>Chapter 189 I have a Better Idea</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-181-song-shoushans-strange-behaviour</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-196</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chapter 196 Ye Feng slapped back to reality?</t>
+          <t>Chapter 204 Three for the Price of One Part 2, R-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-196-ye-feng-slapped-back-to-reality</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-211</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chapter 211 The Prince!</t>
+          <t>Chapter 219 Hells Reach</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-211-the-prince</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-226</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chapter 226 Xuan Wu: The Emperor of Darkness!</t>
+          <t>Chapter 234 Impish Glee</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-226-xuan-wu-the-emperor-of-darkness</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-241</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chapter 241 Pushing Wang Xiaoying to a pit?</t>
+          <t>Chapter 249 Encircled</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-241-pushing-wang-xiaoying-to-a-pit</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-256</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chapter 256 D-Died?</t>
+          <t>Chapter 264 I AM A GOD!</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-256-d-died</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-271</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chapter 271 How many...?</t>
+          <t>Chapter 279 God is Among Us!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-271-how-many</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-286</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chapter 286 Zhang Wei overwhelmed? Xie Meirong attacks the little brother! (1)</t>
+          <t>Chapter 294 The Reinforcements Clean the House</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-286-zhang-wei-overwhelmed-xie-meirong-attacks-the-little-brother-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-301</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chapter 301 Xiong Mei’s request!</t>
+          <t>Chapter 309 Death is not the End Part 2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-301-xiong-meis-request</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-316</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chapter 316 Voodoo (1)</t>
+          <t>Chapter 324 Becoming of Age Part 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-316-voodoo-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-331</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chapter 331 Turned into a ennuch!?</t>
+          <t>Chapter 339 Lost Shield?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-331-turned-into-a-ennuch</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-346</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chapter 346 Sister-in-law is tired! Let the brother-in-law aid her! (1)</t>
+          <t>Chapter 354 Helping the Goddess?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-346-sister-in-law-is-tired-let-the-brother-in-law-aid-her-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-361</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chapter 361 Suffering from Success!</t>
+          <t>Chapter 369 The Gap Between Mother and Son</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-361-suffering-from-success</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-376</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chapter 376 Big Sister escorted back! Borther’s dominance continues — Can’t Compare!</t>
+          <t>Chapter 384 The Legions Descend</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-376-big-sister-escorted-back-borthers-dominance-continues-cant-compare</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-391</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chapter 391 The Little Qilin is blinded by Big Brother Majesty!</t>
+          <t>Chapter 399 Empyrean Inheritance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-391-the-little-qilin-is-blinded-by-big-brother-majesty</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-406</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chapter 406 Begs to become disicple! Eyes the holy mountain!</t>
+          <t>Chapter 414 Merging Life and Death part 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-406-begs-to-become-disicple-eyes-the-holy-mountain</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-421</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chapter 421 Annoyed Zhang Wei! (2)</t>
+          <t>Chapter 429 Picking up a Brother on the Road</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-421-annoyed-zhang-wei-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-436</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chapter 436  Woman's Ability — Self Delulu! Brother's Might blinds the ladies, test the vocals!</t>
+          <t>Chapter 444 Doting Husband</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-436-womans-ability-self-delulu-brothers-might-blinds-the-ladies-test-the-vocals</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-451</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chapter 451 Omnious Twinkle! The Innocent Lamb want to be butchered!</t>
+          <t>Chapter 459 The Fulfulling Devil R-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-451-omnious-twinkle-the-innocent-lamb-want-to-be-butchered</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-466</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chapter 466 Becoming a Godfather! (1)</t>
+          <t>Chapter 474 Battered by Wealth</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-466-becoming-a-godfather-1</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-481</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chapter 481 Troubled Cai Wenxi!</t>
+          <t>Chapter 489 Quasi-Firmament Bloodline</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-481-troubled-cai-wenxi</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-496</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chapter 496 Zhang Wei in need of help! Little brother, tortured, crying and starving!</t>
+          <t>Chapter 504 Snatching All the Goods</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-496-zhang-wei-in-need-of-help-little-brother-tortured-crying-and-starving</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-511</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chapter 2: "You called the police on me!?" (2)</t>
+          <t>Chapter 519 Steamy Note Part 1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-2-you-called-the-police-on-me-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-526</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chapter 17: Where are your parents?</t>
+          <t>Chapter 534 Shifting Void Step</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-17-where-are-your-parents</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-541</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chapter 32: Guardians and Nine Heavenly Treasures!</t>
+          <t>Chapter 549 Highest Digi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-32-guardians-and-nine-heavenly-treasures</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-556</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chapter 47 Rose (1)</t>
+          <t>Chapter 564 Who You Wish to Be</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-47-rose-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-571</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chapter 62 Sucide? Zhang Wei learned a lesson? (1)</t>
+          <t>Chapter 579: Side Chapter IV: Spatio-Temporal Netori</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-62-sucide-zhang-wei-learned-a-lesson-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-586</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Chapter 77 Yu Lei’s plans (2)</t>
+          <t>Chapter c-1 Demonic Contracts Potential Spoilers</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-77-yu-leis-plans-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chapter 92 The Abandoned Mother and Daughter? (1)</t>
+          <t>Chapter 10 Symphony Under the Moon</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-92-the-abandoned-mother-and-daughter-1</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chapter 107 System being generous!?</t>
+          <t>Chapter 25 The Purple Flame Mark Awakens</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-107-system-being-generous</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chapter 122 Take over the Lin Group!? The Little secretary failed to recognise the danger!</t>
+          <t>Chapter 40 Solidifying the Deal</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-122-take-over-the-lin-group-the-little-secretary-failed-to-recognise-the-danger</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-47</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chapter 137 *In the Bureau* (3)</t>
+          <t>Chapter 55 Scarlet Pangolin</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-137-in-the-bureau-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-62</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chapter 152 Chaos in Wang Family (5)</t>
+          <t>Chapter 70 Incorrigible</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-152-chaos-in-wang-family-5</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-77</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chapter 167 School flower ranking!?</t>
+          <t>Chapter 85 Revenge is a Dish Best Served with Mind-Boggling Rods and Pheromones Part 1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-167-school-flower-ranking</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-92</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chapter 182 Helping Xiong Mei take a Bath (1)</t>
+          <t>Chapter 100 Triple Taste R-18</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-182-helping-xiong-mei-take-a-bath-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-107</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chapter 197 Lin Ruoxi: Suprise after suprise!</t>
+          <t>Chapter 115 Not one Bi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-197-lin-ruoxi-suprise-after-suprise</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-122</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chapter 212 Suspicious Zhang Wei</t>
+          <t>Chapter 130 Sharing Secrets Part 1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-212-suspicious-zhang-wei</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-137</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Chapter 227 "Turn around and lie down..."</t>
+          <t>Chapter 145 Nils Circumstances</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-227-turn-around-and-lie-down</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-152</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Chapter 242 The mysterious old lady?</t>
+          <t>Chapter 160 Infernal Soul Devouring Ar</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-242-the-mysterious-old-lady</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-167</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Chapter 257 Life Blood Fusion Art!</t>
+          <t>Chapter 175 Entering the Warring State Era Part 1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-257-life-blood-fusion-art</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-182</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chapter 272 Wu Xue is jealous of new secretary?</t>
+          <t>Chapter 190 The Potential Final Opponen</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-272-wu-xue-is-jealous-of-new-secretary</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-197</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chapter 287 Zhang Wei overwhelmed? Xie Meirong attacks the little brother! (2)</t>
+          <t>Chapter 205 End of the Water Kingdom Alliance R-18, Part 1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-287-zhang-wei-overwhelmed-xie-meirong-attacks-the-little-brother-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-212</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chapter 302 Meeting a disguised celebrity!</t>
+          <t>Chapter 220 When Heaven Wants to Destroy You, It First Drives You Mad</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-302-meeting-a-disguised-celebrity</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-227</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Chapter 317 Voodoo: Zhang Wei’s effect, making women smarter! (2)</t>
+          <t>Chapter 235 Titan Mark</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-317-voodoo-zhang-weis-effect-making-women-smarter-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-242</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chapter 332 Peak Foundation establishment realm!</t>
+          <t>Chapter 250 Because You Are A Stepping Stone</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-332-peak-foundation-establishment-realm</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-257</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chapter 347  Sister-in-law is tired! Let the  brother-in-law aid her! (2)</t>
+          <t>Chapter 265 The Greatest Cuck in History!</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-347-sister-in-law-is-tired-let-the-brother-in-law-aid-her-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-272</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Chapter 362 Zhang Wei! You sick bastard! Get your filthy hands off us!</t>
+          <t>Chapter 280 The Consequences of Anatols Hatred</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-362-zhang-wei-you-sick-bastard-get-your-filthy-hands-off-us</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-287</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Chapter 377 Heilong Village! (1)</t>
+          <t>Chapter 295 Zenith Ants</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-377-heilong-village-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-302</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Chapter 392 Gaining A Pet Qilin!</t>
+          <t>Chapter 310 Eldritch Prototype</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-392-gaining-a-pet-qilin</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-317</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Chapter 407 Bullying the concubine! (1)</t>
+          <t>Chapter 325 Becoming of Age Part 2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-407-bullying-the-concubine-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-332</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Chapter 422 Taking Control</t>
+          <t>Chapter 340 Terrestrial Expression</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-422-taking-control</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-347</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Chapter 437  Another one lusting after brother's sacred physique? (1)</t>
+          <t>Chapter 355 The Flaw that Makes All the Difference</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-437-another-one-lusting-after-brothers-sacred-physique-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-362</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Chapter 452 Where is that Quack doctor!</t>
+          <t>Chapter 370 Randy Goa</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-452-where-is-that-quack-doctor</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-377</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Chapter 467 Becoming a Godfather! (2)</t>
+          <t>Chapter 385 Two Extremes</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-467-becoming-a-godfather-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-392</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Chapter 482 Tempting the Bird (1)</t>
+          <t>Chapter 400 Atomic Bomb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-482-tempting-the-bird-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-407</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Chapter 497 Brother's grand Intentions! 'Support' to all the lonely widows of the world!</t>
+          <t>Chapter 415 Two Choices</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-497-brothers-grand-intentions-support-to-all-the-lonely-widows-of-the-world</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-422</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chapter 3: "You called the police on me!?" (3)</t>
+          <t>Chapter 430 White Dragon Hear</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-3-you-called-the-police-on-me-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-437</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Chapter 18: Feng Xinyue</t>
+          <t>Chapter 445 Greetings, Celestial Realm!</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-18-feng-xinyue</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-452</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Chapter 33: Yu Lei Kidnapped!?</t>
+          <t>Chapter 460 The Bloodcurdling Scream that Alarmed Heaven! R-18</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-33-yu-lei-kidnapped</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-467</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Chapter 48 *Rose (2)*</t>
+          <t>Chapter 475 My Excuse to Dally</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-48-rose-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-482</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Chapter 63 Suicide? Zhang Wei learned an lesson? (2)</t>
+          <t>Chapter 490 Eternal Pawn</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-63-suicide-zhang-wei-learned-an-lesson-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-497</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chapter 78 Yu Lei’s Plans (3)</t>
+          <t>Chapter 505 Daggered Pride</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-78-yu-leis-plans-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-512</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Chapter 93 The Abandoned Mother and Daughter? (2)</t>
+          <t>Chapter 520 Steamy Note Part 2, R-18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-93-the-abandoned-mother-and-daughter-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-527</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Chapter 108 Ruthless Zhang Wei!</t>
+          <t>Chapter 535 Brutal Retaliation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-108-ruthless-zhang-wei</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-542</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Chapter 123 Zhang Wei become the new president?</t>
+          <t>Chapter 550 Talroth’s Demise</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-123-zhang-wei-become-the-new-president</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-557</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Chapter 138 *In the Bureau* (4)</t>
+          <t>Chapter 565 1,500 Years of Cultivation</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-138-in-the-bureau-4</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-572</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Chapter 153 Zhang Wei’s extortion: Wang Liang coughed blood! (1)</t>
+          <t>Chapter c-2 Current Character Information Spoiler</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-153-zhang-weis-extortion-wang-liang-coughed-blood-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-3</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Chapter 168 Xie Meirong: Mo Chen humiliated again?</t>
+          <t>Chapter 11 Complete Blood Awakening</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-168-xie-meirong-mo-chen-humiliated-again</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-18</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Chapter 183 *Helping Xiong Mei take a Bath* (2)</t>
+          <t>Chapter 26 First Demonic Contract: Partnership of Equals</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-183-helping-xiong-mei-take-a-bath-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-33</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Chapter 198 Zhang Wei’s dream completed? Hugging left and right?</t>
+          <t>Chapter 41 Subduing the Former Chieftain R-18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-198-zhang-weis-dream-completed-hugging-left-and-right</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-48</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Chapter 213 A lamb is about to be slaughtered!</t>
+          <t>Chapter 56 Ancestral Feud</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-213-a-lamb-is-about-to-be-slaughtered</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-63</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Chapter 228 Meeting Liu Ming! Zhang Wei finally got a rival?</t>
+          <t>Chapter 71 Which One Will You Choose?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-228-meeting-liu-ming-zhang-wei-finally-got-a-rival</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-78</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Chapter 243 Wang Xiaoying made the choice, Mo Chen tossed away?</t>
+          <t>Chapter 86 Revenge is a Dish Best Served with Mind-Boggling Rods and Pheromones Part 2, R-18</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-243-wang-xiaoying-made-the-choice-mo-chen-tossed-away</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-93</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Chapter 258 Take off his clothes!?</t>
+          <t>Chapter 101 Remove the Problem R-18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-258-take-off-his-clothes</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-108</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Chapter 273 Lisa’s first task!</t>
+          <t>Chapter 116 You have no Conscience!</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-273-lisas-first-task</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-123</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Chapter 288 *Zhang Wei overwhelmed? Xie Meirong attacks the little brother!* (3)</t>
+          <t>Chapter 131 Sharing Secrets Part 2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-288-zhang-wei-overwhelmed-xie-meirong-attacks-the-little-brother-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-138</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Chapter 303 Zhang Wei harassed? Jiajia spends rest of life in prison?</t>
+          <t>Chapter 146 The One that Always Smiles</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-303-zhang-wei-harassed-jiajia-spends-rest-of-life-in-prison</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-153</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Chapter 318 Perhaps an extra—precisely two extra pillows for added comfort?</t>
+          <t>Chapter 161 Wrong Words</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-318-perhaps-an-extraprecisely-two-extra-pillows-for-added-comfort</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-168</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chapter 333 A big scoundrel! Awakening of a dragon!</t>
+          <t>Chapter 176 Entering the Warring State Era Part 2</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-333-a-big-scoundrel-awakening-of-a-dragon</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-183</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chapter 348  Xiong Mei getting disowned?  Kicked out of her own house!</t>
+          <t>Chapter 191 What you dont have, you Snatch!</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-348-xiong-mei-getting-disowned-kicked-out-of-her-own-house</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-198</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chapter 363 *Heavenly Bliss!*</t>
+          <t>Chapter 206 End of the Water Kingdom Alliance Part 2</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-363-heavenly-bliss</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-213</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Chapter 378 Heilong Village! (2)</t>
+          <t>Chapter 221 Broken Myth</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-378-heilong-village-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-228</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Chapter 393 Learn From Senior! Big Brother imparting Lessons!</t>
+          <t>Chapter 236 Time Tornados</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-393-learn-from-senior-big-brother-imparting-lessons</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-243</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Chapter 408 Bullying the Concubine (2)</t>
+          <t>Chapter 251 What is Your Choice?</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-408-bullying-the-concubine-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-258</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Chapter 423 I am your Unofficial Father!</t>
+          <t>Chapter 266 Olrich’s Bills</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-423-i-am-your-unofficial-father</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-273</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Chapter 438  Another one lusting after brother's sacred physique? (2)</t>
+          <t>Chapter 281 The World Tree Wails</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-438-another-one-lusting-after-brothers-sacred-physique-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-288</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chapter 453 The Quack doctor is playing with your sister! Come Tomorrow!</t>
+          <t>Chapter 296 The Devas Arrive</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-453-the-quack-doctor-is-playing-with-your-sister-come-tomorrow</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-303</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Chapter 468 Becoming a Godfather! (3)</t>
+          <t>Chapter 311 The Hero the World Needs</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-468-becoming-a-godfather-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-318</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Chapter 483 Tempting the Bird (2)</t>
+          <t>Chapter 326 Becoming of Age Part 3, R-18</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-483-tempting-the-bird-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-333</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Chapter 498 Black Ostrich! Wearing a green hat?</t>
+          <t>Chapter 341 Astarte’s Fate</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-498-black-ostrich-wearing-a-green-hat</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-348</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Chapter 4: "You called the police on me!?" (4)</t>
+          <t>Chapter 356 Chimera</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-4-you-called-the-police-on-me-4</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-363</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Chapter 19: Teaching lesson to Song Hu</t>
+          <t>Chapter 371 Know Your Place</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-19-teaching-lesson-to-song-hu</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-378</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Chapter 34 Song Hu outsmarted!</t>
+          <t>Chapter 386 All-Out 'Holy' Clash</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-34-song-hu-outsmarted</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-393</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Chapter 49 Ye Feng Regret, The Plot Armor Glitched?</t>
+          <t>Chapter 401 Kissing the Malevolent Protectors Thigh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-49-ye-feng-regret-the-plot-armor-glitched</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-408</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Chapter 64 *The Unfortunate Fate of Feng Xinyue by Zhang Wei* (1)</t>
+          <t>Chapter 416 Putting Down the Mortal Realm</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-64-the-unfortunate-fate-of-feng-xinyue-by-zhang-wei-1</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-423</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Chapter 79 Three again?</t>
+          <t>Chapter 431 Temple Girl Part 1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-79-three-again</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-438</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Chapter 94 Knidnapping the cold president?</t>
+          <t>Chapter 446 Talroth Snaps</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-94-knidnapping-the-cold-president</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-453</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Chapter 109 W-Hotel in flames!</t>
+          <t>Chapter 461 Towers of Reckoning</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-109-w-hotel-in-flames</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-468</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Chapter 124 21st Century: Women can’t be easily bullied?</t>
+          <t>Chapter 476 Ratis Struggles</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-124-21st-century-women-cant-be-easily-bullied</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-483</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Chapter 139 Molesting the Secretary!</t>
+          <t>Chapter 491 May We Meet Again</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-139-molesting-the-secretary</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-498</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Chapter 154 Zhang Wei’s extortion: Wang Liang coughed blood! (2)</t>
+          <t>Chapter 506 Swatted Like a Fly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-154-zhang-weis-extortion-wang-liang-coughed-blood-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-513</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Chapter 169 Bonus Mission: Bai Wenling!</t>
+          <t>Chapter 521 Rati’s Change</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-169-bonus-mission-bai-wenling</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-528</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Chapter 184 *Helping Xiong Mei take a Bath* (3)</t>
+          <t>Chapter 536 Looting the Titan Domain</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-184-helping-xiong-mei-take-a-bath-3</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-543</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Chapter 199 Killing a chicken to scare off the monkeys!?</t>
+          <t>Chapter 551 The Supreme Conqueror</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-199-killing-a-chicken-to-scare-off-the-monkeys</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-558</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Chapter 214 Feng Ruoyan strikes back!</t>
+          <t>Chapter 566 The Association</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-214-feng-ruoyan-strikes-back</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-573</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Chapter 229 Ten fingers not enough?</t>
+          <t>Chapter c-3 Demonic Contracts Potential Spoilers</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-229-ten-fingers-not-enough</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-4</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Chapter 244 Today’s Menu: Daughter and mother sandwitch?</t>
+          <t>Chapter 12 Blissful Punishment R-18</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-244-todays-menu-daughter-and-mother-sandwitch</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-19</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Chapter 259 Slaves meetup? (1)</t>
+          <t>Chapter 27 Go Get Your Milk Elsewhere!</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-259-slaves-meetup-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-34</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Chapter 274 The frightened Interns!</t>
+          <t>Chapter 42 Surprise Visi</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-274-the-frightened-interns</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-49</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Chapter 289 Escorting Song Shoushan back!</t>
+          <t>Chapter 57 My Intentions Are Pure!</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-289-escorting-song-shoushan-back</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-64</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Chapter 304 Big sister knees turned soft! (1)</t>
+          <t>Chapter 72 Distance</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-304-big-sister-knees-turned-soft-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-79</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Chapter 319 Another one broken into tears?</t>
+          <t>Chapter 87 Enthralling the Inquisitresses</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-319-another-one-broken-into-tears</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-94</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Chapter 334 We humans should appreciate the beauty of nature?</t>
+          <t>Chapter 102 Meridians Opening</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-334-we-humans-should-appreciate-the-beauty-of-nature</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-109</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Chapter 349  *Torturing Sister-in-law*</t>
+          <t>Chapter 117 We Finally Mee</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-349-torturing-sister-in-law</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-124</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Chapter 364 *Feng Ruoyan Mischief*</t>
+          <t>Chapter 132 Sharing Secrets Part 3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-364-feng-ruoyan-mischief</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-139</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chapter 379 Using Cultivation to Woo Girls? It’s Big Brother’s style — Can’t Compare!</t>
+          <t>Chapter 147 Nils Breaks Out!</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-379-using-cultivation-to-woo-girls-its-big-brothers-style-cant-compare</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-154</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Chapter 394 Big Brother Dominance continues! Beauty opens the legs! (1)</t>
+          <t>Chapter 162 Demanding Main Ques</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-394-big-brother-dominance-continues-beauty-opens-the-legs-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-169</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Chapter 409 Bullying the Concubine (3)</t>
+          <t>Chapter 177 Using Chaos to Reap Profits</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-409-bullying-the-concubine-3</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-184</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Chapter 424 Brothe’s Fetish! Courting to be stepped by Jade feets?</t>
+          <t>Chapter 192 The Tenth Elder’s Tragic Fate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-424-brothes-fetish-courting-to-be-stepped-by-jade-feets</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-199</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Chapter 439  The New Lamb decides to take a dive and kiss the brother's mercy!</t>
+          <t>Chapter 207 Nocturnal Retaliation Part 1</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-439-the-new-lamb-decides-to-take-a-dive-and-kiss-the-brothers-mercy</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-214</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Chapter 454 Doctor Zhang... Is molesting children your part-time profession?</t>
+          <t>Chapter 222 Compromise</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-454-doctor-zhang-is-molesting-children-your-part-time-profession</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-229</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Chapter 469 Becoming a Godfather! (4)</t>
+          <t>Chapter 237 Konrad, Don’t You Dare! Part 1</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-469-becoming-a-godfather-4</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-244</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Chapter 484 Tempting the Bird! (3)</t>
+          <t>Chapter 252 Decadent Welcome R-18</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-484-tempting-the-bird-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-259</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Chapter 499 Distressed Xiong Mei! Doesn't want to be Canary anymore! Want Freedom? (1)</t>
+          <t>Chapter 267 End of the von Jurgen Dynasty</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-499-distressed-xiong-mei-doesnt-want-to-be-canary-anymore-want-freedom-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-274</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Chapter 5: The fierce police offcer</t>
+          <t>Chapter 282 I Am Way Too Rich</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-5-the-fierce-police-offcer</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-289</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Chapter 20: Zhang Wei is in trouble</t>
+          <t>Chapter 297 Jade Consorts vs. God-Children</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-20-zhang-wei-is-in-trouble</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-304</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Chapter 35 Blame yourself for it!</t>
+          <t>Chapter 312 But not the one it Deserves</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-35-blame-yourself-for-it</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-319</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Chapter 50 Smuggling what....?</t>
+          <t>Chapter 327 When Youre so Dreadful that you Dont Even Need to Speak</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-50-smuggling-what</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-334</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Chapter 65 *The Unfortunate Fate of Feng Xinyue by Zhang Wei* (2)</t>
+          <t>Chapter 342 Startling Awakening</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-65-the-unfortunate-fate-of-feng-xinyue-by-zhang-wei-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-349</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Chapter 80 *The Night is Long* (1)</t>
+          <t>Chapter 357 What the Underworld Doesnt Dare</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-80-the-night-is-long-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-364</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Chapter 95 Confrontation or Not?</t>
+          <t>Chapter 372 Youre Not Getting Enough Cock Part 1, R-18</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-95-confrontation-or-not</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-379</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Chapter 110 It’s not like I can ask to stay at your home?</t>
+          <t>Chapter 387 Cleaning the Ship</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-110-its-not-like-i-can-ask-to-stay-at-your-home</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-394</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Chapter 125 Wu Xue’s Fantasies! Starving Lin Ruoxi!</t>
+          <t>Chapter 402 Routing the Ants Part 1</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-125-wu-xues-fantasies-starving-lin-ruoxi</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-409</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Chapter 140 Reason behind Lin Ruoxi’s Icy demeanor?</t>
+          <t>Chapter 417 Using the Right People for the Right Tasks</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-140-reason-behind-lin-ruoxis-icy-demeanor</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-424</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Chapter 155 Zhang Wei’s extortion: Wang Liang coughed blood! (3)</t>
+          <t>Chapter 432 Temple Girl Part 2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-155-zhang-weis-extortion-wang-liang-coughed-blood-3</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-439</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Chapter 170 Huang Ren greets the new boss!</t>
+          <t>Chapter 447 Demons and Devas Unite</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-170-huang-ren-greets-the-new-boss</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-454</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chapter 185 Xiong Mei fallen already....?</t>
+          <t>Chapter 462 I am Being Framed!</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-185-xiong-mei-fallen-already</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-469</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Chapter 200 Effortlessly reversing the situation!</t>
+          <t>Chapter 477 Bloodline Breakthrough</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-200-effortlessly-reversing-the-situation</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-484</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Chapter 215 Unexpected Encounter!</t>
+          <t>Chapter 492 Forge a new Road</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-215-unexpected-encounter</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-499</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Chapter 230 Xiong Mei showing her true colours?</t>
+          <t>Chapter 507 Suppressing Dissidence</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-230-xiong-mei-showing-her-true-colours</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-514</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Chapter 245 Martial Artist?</t>
+          <t>Chapter 522 Fate Calculations</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-245-martial-artist</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-529</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Chapter 260 Slaves Meetup (2)</t>
+          <t>Chapter 537 Straightening Hell</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-260-slaves-meetup-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-544</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Chapter 275 The Magician — Phantom</t>
+          <t>Chapter 552 The Supreme Conqueror Part 2</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-275-the-magician-phantom</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-559</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Chapter 290 *Zhao Hongyan’s secret* (1)</t>
+          <t>Chapter 567 Into the Firmaments Shadow</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-290-zhao-hongyans-secret-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-574</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Chapter 305 Big sister knees turned soft, worships the little brother! (2)</t>
+          <t>Chapter c-3 Ranks Potential Spoilers</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-305-big-sister-knees-turned-soft-worships-the-little-brother-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-5</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Chapter 320 Xu Qing becoming more daring?</t>
+          <t>Chapter 13 Are You Afraid of Me?</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-320-xu-qing-becoming-more-daring</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-20</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Chapter 335  Crashing the Engagement Party! (1)</t>
+          <t>Chapter 28 When Five Words Crash All Your Plans</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-335-crashing-the-engagement-party-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-35</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Chapter 350  It's not a crime, if no one sees it!</t>
+          <t>Chapter 43 The Holy Consort’s Breathtaking Gifts</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-350-its-not-a-crime-if-no-one-sees-it</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-50</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Chapter 365 "Y-You can continue if you prefer it a bit more bloody"</t>
+          <t>Chapter 58 You Make Me Feel Like Lamb</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-365-y-you-can-continue-if-you-prefer-it-a-bit-more-bloody</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-65</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Chapter 380 Women and Cigarette: Both sucks the life out of you!</t>
+          <t>Chapter 73 Purple Lightning Attribute</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-380-women-and-cigarette-both-sucks-the-life-out-of-you</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-80</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Chapter 395 Big Brother Dominance continues! Beauty opens the legs! (2)</t>
+          <t>Chapter 88 Framing</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-395-big-brother-dominance-continues-beauty-opens-the-legs-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-95</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Chapter 410 Bullying the Concubine (4)</t>
+          <t>Chapter 103 Eternal Partnership</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-410-bullying-the-concubine-4</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-110</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Chapter 425 Mysterious Visitor! (1)</t>
+          <t>Chapter 118 You are to Blame!</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-425-mysterious-visitor-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-125</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Chapter 440  Be as smart as the brother? Never mind! Can't compete!</t>
+          <t>Chapter 133 Yvonnes Debts</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-440-be-as-smart-as-the-brother-never-mind-cant-compete</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-140</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Chapter 455 Liu Ling’er: Mm! Mm! Doctor Zhang, I am sorry! I misjudged you!</t>
+          <t>Chapter 148 It’s a Trap!</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-455-liu-linger-mm-mm-doctor-zhang-i-am-sorry-i-misjudged-you</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-155</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Chapter 470 *Mr Zhang would help you sleep! Sweet Dreams!*</t>
+          <t>Chapter 163 Mastering the first Layer</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-470-mr-zhang-would-help-you-sleep-sweet-dreams</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-170</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Chapter 485 Disappoint Others?</t>
+          <t>Chapter 178 Thus Begins the Plague!</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-485-disappoint-others</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-185</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Chapter 500 Distressed Xiong Mei! Doesn’t want to be Canary anymore! Want Freedom? (2)</t>
+          <t>Chapter 193 We are not Equals</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-500-distressed-xiong-mei-doesnt-want-to-be-canary-anymore-want-freedom-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-200</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Chapter 6: Taken to the Police Station</t>
+          <t>Chapter 208 Nocturnal Retaliation Part 2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-6-taken-to-the-police-station</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-215</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Chapter 21: System Shop (1)</t>
+          <t>Chapter 223 Into the Tower!</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-21-system-shop-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-230</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Chapter 36 Too overpowered!</t>
+          <t>Chapter 238 Konrad, Don’t You Dare! Part 2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-36-too-overpowered</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-245</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Chapter 51 Meeting Leng Yan Again</t>
+          <t>Chapter 253 Valkyrie Marks</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-51-meeting-leng-yan-again</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-260</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Chapter 66 Ye Feng again...?</t>
+          <t>Chapter 268 Mourning is Your Righ</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-66-ye-feng-again</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-275</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Chapter 81 Feng Xinyue’s thoughts (1)</t>
+          <t>Chapter 283 Coronation Ceremony</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-81-feng-xinyues-thoughts-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-290</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Chapter 96 The wife is really harmless?</t>
+          <t>Chapter 298 Altering the Pas</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-96-the-wife-is-really-harmless</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-305</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Chapter 111 Ye Feng arrested for Terrorism, and Zhang Wei recieved cool rewards!</t>
+          <t>Chapter 313 Sworn Brotherhood</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-111-ye-feng-arrested-for-terrorism-and-zhang-wei-recieved-cool-rewards</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-320</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Chapter 126 Leng Mei humbled by Zhang Wei!</t>
+          <t>Chapter 328 Tree Sovereign</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-126-leng-mei-humbled-by-zhang-wei</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-335</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Chapter 141 Fang Dongmei!</t>
+          <t>Chapter 343 At the Edge of a Cliff</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-141-fang-dongmei</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-350</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Chapter 156 Fulfilling Yu Lei’s wish!</t>
+          <t>Chapter 358 The Invasion Begins!</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-156-fulfilling-yu-leis-wish</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-365</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chapter 171 Brother is too domineering, can’t compare!</t>
+          <t>Chapter 373 Youre Not Getting Enough Cock Part 2, R-18</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-171-brother-is-too-domineering-cant-compare</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-380</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Chapter 186 New home? Xiong Mei is at loss!</t>
+          <t>Chapter 388 The Valkyrie Part 1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-186-new-home-xiong-mei-is-at-loss</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-395</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Chapter 201 Jealous Secretary?</t>
+          <t>Chapter 403 Routing the Ants Part 2</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-201-jealous-secretary</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-410</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Chapter 216 Meeting Chen Yulan! (1)</t>
+          <t>Chapter 418 Discipline As You Will</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-216-meeting-chen-yulan-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-425</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Chapter 231 Greenry Everywhere! Uncle detected, girl molested! (1)</t>
+          <t>Chapter 433 Decadent Reign</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-231-greenry-everywhere-uncle-detected-girl-molested-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-440</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Chapter 246 Lei Juan wants to negotiate?</t>
+          <t>Chapter 448 Sea Dream City</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-246-lei-juan-wants-to-negotiate</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-455</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Chapter 261 *Slave meetup* (3)</t>
+          <t>Chapter 463 Dispossess the Nagas!</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-261-slave-meetup-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-470</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Chapter 276 Panicked Zhao Hongyan</t>
+          <t>Chapter 478 I Will be Gentle</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-276-panicked-zhao-hongyan</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-485</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Chapter 291 *Zhao Hongyan’s secret* (2)</t>
+          <t>Chapter 493 Unexpected Reques</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-291-zhao-hongyans-secret-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-500</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Chapter 306 *Big sister knees turned soft, worships the little brother! (3)*</t>
+          <t>Chapter 508 Destiny Gathering Veins</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-306-big-sister-knees-turned-soft-worships-the-little-brother-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-515</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Chapter 321 Golden Dragon</t>
+          <t>Chapter 523 Nothingness?</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-321-golden-dragon</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-530</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Chapter 336  Crashing the Engagement Party (2)</t>
+          <t>Chapter 538 Exposing Moon</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-336-crashing-the-engagement-party-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-545</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Chapter 351  Mother and daughter, acrobatics!</t>
+          <t>Chapter 553 Driven into Madness</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-351-mother-and-daughter-acrobatics</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-560</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Chapter 366 Xuan Wu Legacy: Bloodhound Guardian array!</t>
+          <t>Chapter 568 War of Devils and Gods</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-366-xuan-wu-legacy-bloodhound-guardian-array</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-575</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Chapter 381 Angered Chen Yulan to death!</t>
+          <t>Chapter c-4 Current Character Information Spoiler</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-381-angered-chen-yulan-to-death</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-6</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Chapter 396 Witness the might of Dragon! Big Brother Donating Greenhats!</t>
+          <t>Chapter 14 Schemes</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-396-witness-the-might-of-dragon-big-brother-donating-greenhats</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-21</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Chapter 411 Bullying the Concubine (5)</t>
+          <t>Chapter 29 I Respectfully Decline</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-411-bullying-the-concubine-5</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-36</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Chapter 426 Mysterious Visitor (2)</t>
+          <t>Chapter 44 All Must Surrender to Daphne</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-426-mysterious-visitor-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-51</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Chapter 441 *Embarrassed Secretary (1)*</t>
+          <t>Chapter 59 You Can Count On Me</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-441-embarrassed-secretary-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-66</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Chapter 456 There is no harm in a doctor seeing your n-naked body! It’s a noble profession!</t>
+          <t>Chapter 74 Battle Royal</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-456-there-is-no-harm-in-a-doctor-seeing-your-n-naked-body-its-a-noble-profession</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-81</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Chapter 471 The surprised mother and daughter!</t>
+          <t>Chapter 89 Plundering the Inquisition’s Vaul</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-471-the-surprised-mother-and-daughter</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-96</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Chapter 486 *Disappoint Others—Dancing Car!* (2)</t>
+          <t>Chapter 104 Eve</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-486-disappoint-othersdancing-car-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-111</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Chapter 501 White ’Handsome’ Monkey? Time for Belt Treatment!</t>
+          <t>Chapter 119 Mismatched Feelings</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-501-white-handsome-monkey-time-for-belt-treatment</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-126</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Chapter 7: Threatening Leng Yan</t>
+          <t>Chapter 134 Yvonnes Debts Part 2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-7-threatening-leng-yan</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-141</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Chapter 22: System shop (2)</t>
+          <t>Chapter 149 Stop Causing Me Trouble!</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-22-system-shop-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-156</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Chapter 37 Leng Yan woke up (1)</t>
+          <t>Chapter 164 First Confrontation</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-37-leng-yan-woke-up-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-171</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Chapter 52 Don’t tell me you forget to oil your ass...?</t>
+          <t>Chapter 179 Why not Me? Part 1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-52-dont-tell-me-you-forget-to-oil-your-ass</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-186</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Chapter 67 Shenwei City - Activate the Artist</t>
+          <t>Chapter 194 Beautiful Monster Part 1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-67-shenwei-city-activate-the-artist</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-201</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Chapter 82 Feng Xinyue’s thoughts (2)</t>
+          <t>Chapter 209 Nocturnal Retaliation Part 3</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-82-feng-xinyues-thoughts-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-216</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Chapter 97 New Neighbours?</t>
+          <t>Chapter 224 The First Floor</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-97-new-neighbours</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-231</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Chapter 112 Guo Xiaomei</t>
+          <t>Chapter 239 Hidden Goal</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-112-guo-xiaomei</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-246</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Chapter 127 Brother Tiger? Why does it look like Gorilla? (1)</t>
+          <t>Chapter 254 You Cannot Betray Enemies</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-127-brother-tiger-why-does-it-look-like-gorilla-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-261</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Chapter 142 Lin Ruoxi is dying?</t>
+          <t>Chapter 269 Joining Hands Before a Common Foe</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-142-lin-ruoxi-is-dying</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-276</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Chapter 157 Diviner and a huge terrifying eye!</t>
+          <t>Chapter 284 Grand Imperial Wedding</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-157-diviner-and-a-huge-terrifying-eye</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-291</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Chapter 172 Teasing Xiong Mei under the table!</t>
+          <t>Chapter 299 The Unfathomable Dasra</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-172-teasing-xiong-mei-under-the-table</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-306</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Chapter 187 Lin Ruoxi’s transformation!</t>
+          <t>Chapter 314 Blood Mountain Range</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-187-lin-ruoxis-transformation</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-321</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Chapter 202 Bullying the secretary: Making Wu Xue cry! (1)</t>
+          <t>Chapter 329 Black Crystal Ring</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-202-bullying-the-secretary-making-wu-xue-cry-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-336</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Chapter 217 Meeting Chen Yulan! (2)</t>
+          <t>Chapter 344 Ground Zero</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-217-meeting-chen-yulan-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-351</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Chapter 232 Greenry Everywhere! Uncle detected, girl molested! (2)</t>
+          <t>Chapter 359 The Plight of a Doting Brother</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-232-greenry-everywhere-uncle-detected-girl-molested-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-366</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Chapter 247 Stroll in a park? Do shaddy things?</t>
+          <t>Chapter 374 Banged by Death R-18</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-247-stroll-in-a-park-do-shaddy-things</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-381</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Chapter 262 *Slave Meetup* (4)</t>
+          <t>Chapter 389 The Valkyrie Part 2</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-262-slave-meetup-4</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-396</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Chapter 277 Zhao Hongyan need help?</t>
+          <t>Chapter 404 Hastened Withering Part 1</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-277-zhao-hongyan-need-help</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-411</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Chapter 292 Zhao Hongyan’s secret (3)</t>
+          <t>Chapter 419 Life and Death Revolution Creed</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-292-zhao-hongyans-secret-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-426</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Chapter 307 *Big sister knees turned soft, worships the little brother! (4)*</t>
+          <t>Chapter 434 Inviting Destruction</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-307-big-sister-knees-turned-soft-worships-the-little-brother-4</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-441</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Chapter 322 Golden Dragon (2)</t>
+          <t>Chapter 449 A Hero for a Damsel</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-322-golden-dragon-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-456</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Chapter 337 Dragon Squad Leader</t>
+          <t>Chapter 464 Mid-Stage Grand Devil R-18</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-337-dragon-squad-leader</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-471</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Chapter 352 Control... Brother-in-law...</t>
+          <t>Chapter 479 You Have no Control</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-352-control-brother-in-law</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-486</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Chapter 367 New Bloodline Ability!</t>
+          <t>Chapter 494 With No Way Out Part 1</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-367-new-bloodline-ability</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-501</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Chapter 382 Cruel Woman: Can’t even let Pee in silence!</t>
+          <t>Chapter 509 Grand Devil Pills</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-382-cruel-woman-cant-even-let-pee-in-silence</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-516</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Chapter 397 Blackmailing the Councilman!</t>
+          <t>Chapter 524 Chandra’s Reward R-18</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-397-blackmailing-the-councilman</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-531</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Chapter 412 Bullying the Concubine (6)</t>
+          <t>Chapter 539 The Warden’s Invitation</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-412-bullying-the-concubine-6</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-546</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Chapter 427 The Abondened Disicple is back!</t>
+          <t>Chapter 554 Bloodline Transcendence</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-427-the-abondened-disicple-is-back</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-561</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Chapter 442 *Embarassed Secretary (2)*</t>
+          <t>Chapter 569 Price of the Eternal Crown</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-442-embarassed-secretary-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-576</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Chapter 457 Patient bit the doctor! The doctor bites back!</t>
+          <t>Chapter c-5 Ranks Potential Spoilers</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-457-patient-bit-the-doctor-the-doctor-bites-back</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-7</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Chapter 472 Another Monkey from the mountains?</t>
+          <t>Chapter 15 The Thing I Will Never Dread</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-472-another-monkey-from-the-mountains</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-22</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Chapter 487  *Zhang Ming suspicious? Cai Wenxi thrilled?*</t>
+          <t>Chapter 30 Bargain</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-487-zhang-ming-suspicious-cai-wenxi-thrilled</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-37</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Chapter 502 Daddy, Please, let me go!</t>
+          <t>Chapter 45 Wolfgangs Disgrace</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-502-daddy-please-let-me-go</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-52</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Chapter 8: Jasmine</t>
+          <t>Chapter 60 Foolish Girl</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-8-jasmine</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-67</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Chapter 23: Becoming a Cultivator!</t>
+          <t>Chapter 75 One Move Execution Series</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-23-becoming-a-cultivator</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-82</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Chapter 38 Leng Yan woke up (2)</t>
+          <t>Chapter 90 The Baptism</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-38-leng-yan-woke-up-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-97</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Chapter 53 Which idiot dared to abonden Leng Mei?</t>
+          <t>Chapter 105 The Wedding Begins</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-53-which-idiot-dared-to-abonden-leng-mei</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-112</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Chapter 68 Angry Ye Feng!</t>
+          <t>Chapter 120 Tower of Rebirth</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-68-angry-ye-feng</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-127</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Chapter 83 System playing pranks on Zhang Wei!?</t>
+          <t>Chapter 135 The Emperors True Self</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-83-system-playing-pranks-on-zhang-wei</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-142</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Chapter 98 Cute Daughters - On the making!</t>
+          <t>Chapter 150 Olrich’s Pride and Fear</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-98-cute-daughters-on-the-making</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-157</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Chapter 113 Lin Ruoxi (1)</t>
+          <t>Chapter 165 The Taste of Grandeur</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-113-lin-ruoxi-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-172</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Chapter 128 Brother Tiger? Why does it look like Gorilla? (2)</t>
+          <t>Chapter 180 Why not Me? R-18</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-128-brother-tiger-why-does-it-look-like-gorilla-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-187</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Chapter 143 Mother in law is Celestial phoneix?</t>
+          <t>Chapter 195 Beautiful Monster Part 2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-143-mother-in-law-is-celestial-phoneix</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-202</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Chapter 158 Tricking Zhao Hongyan! (1)</t>
+          <t>Chapter 210 Who’s your Father?</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-158-tricking-zhao-hongyan-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-217</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Chapter 173 Xiong Mei’s dilemma! Mo Chen humbled again!</t>
+          <t>Chapter 225 Crossing the Tower Part 1</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-173-xiong-meis-dilemma-mo-chen-humbled-again</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-232</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Chapter 188 Lin Ruoxi wants to escape?</t>
+          <t>Chapter 240 The Imp Bargains</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-188-lin-ruoxi-wants-to-escape</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-247</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Chapter 203 Bullying the secretary: Making Wu Xue cry! (2)</t>
+          <t>Chapter 255 The Tables Have Turned?</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-203-bullying-the-secretary-making-wu-xue-cry-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-262</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Chapter 218 Meeting Chen Yulan! (3)</t>
+          <t>Chapter 270 Negotiation or Humiliation?</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-218-meeting-chen-yulan-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-277</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Chapter 233 Greenry Everywhere! Uncle detected, girl molested! (3)</t>
+          <t>Chapter 285 Bestial Nuptials Part 1, R-18</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-233-greenry-everywhere-uncle-detected-girl-molested-3</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-292</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Chapter 248 Mo Chen Turned into a pig! Unknown caller?</t>
+          <t>Chapter 300 Alarming Breakthrough</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-248-mo-chen-turned-into-a-pig-unknown-caller</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-307</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Chapter 263 Ghosts that steal food!?</t>
+          <t>Chapter 315 Kiss My Boo</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-263-ghosts-that-steal-food</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-322</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Chapter 278 "I promise you!"</t>
+          <t>Chapter 330 I Am a Trickster</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-278-i-promise-you</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-337</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Chapter 293 Zhang Wei forget the names of his own wives and children?</t>
+          <t>Chapter 345 The Final Pass</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-293-zhang-wei-forget-the-names-of-his-own-wives-and-children</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-352</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Chapter 308 *Big sister knees turned soft, worships the little brother! (5)*</t>
+          <t>Chapter 360 House Serkar Confronts the Enemy</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-308-big-sister-knees-turned-soft-worships-the-little-brother-5</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-367</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Chapter 323 Concert (1)</t>
+          <t>Chapter 375 Surrender Your Soul</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-323-concert-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-382</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Chapter 338 Brother’s Too Domineering! Abducted the bride!</t>
+          <t>Chapter 390 Taming Death</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-338-brothers-too-domineering-abducted-the-bride</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-397</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Chapter 353 Xiong Rui’s despair, sister and mother abondens, the big brother embraces!(1)</t>
+          <t>Chapter 405 Hastened Withering Part 2</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-353-xiong-ruis-despair-sister-and-mother-abondens-the-big-brother-embraces1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-412</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Chapter 368 Song Family End is Near!</t>
+          <t>Chapter 420 Another Day, Another Victory! R-18</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-368-song-family-end-is-near</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-427</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Chapter 383 "Although the car isn’t running, if you run your mouth in the right places, we might take off soon!"</t>
+          <t>Chapter 435 Daddy’s Girl</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-383-although-the-car-isnt-running-if-you-run-your-mouth-in-the-right-places-we-might-take-off-soon</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-442</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Chapter 398 10th April!</t>
+          <t>Chapter 450 Divide and Conquer Part 1</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-398-10th-april</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-457</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Chapter 413 Manipulating the Narrative? Chen Yulan is evil! (1)</t>
+          <t>Chapter 465 Heaven’s Number One Beauty</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-413-manipulating-the-narrative-chen-yulan-is-evil-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-472</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Chapter 428 Big Brother scheduling sessions of Harrasment! Terrified Raven!</t>
+          <t>Chapter 480 The Primogens Attack!</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-428-big-brother-scheduling-sessions-of-harrasment-terrified-raven</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-487</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Chapter 443 *Sulking Secretary! (1)*</t>
+          <t>Chapter 495 With No Way Out Part 2</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-443-sulking-secretary-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-502</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Chapter 458  Daring Adventures of Toothless fairy!</t>
+          <t>Chapter 510 Talroth’s Staggering Gifts</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-458-daring-adventures-of-toothless-fairy</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-517</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Chapter 473 Thanks for the lift!</t>
+          <t>Chapter 525 Grand Harves</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-473-thanks-for-the-lift</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-532</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Chapter 488  Are you Drunk?</t>
+          <t>Chapter 540 Leaping Forward</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-488-are-you-drunk</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-547</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Chapter 503 Xiong Mei wants to give Zhang Wei a monkey!?</t>
+          <t>Chapter 555 Peace Treaty</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-503-xiong-mei-wants-to-give-zhang-wei-a-monkey</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-562</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Chapter 9: "Are you trying to seduce me?"</t>
+          <t>Chapter 570 The Devils Crushing Superiority</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-9-are-you-trying-to-seduce-me</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-577</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Chapter 24: *Zhang Wei bullying kids (1)*</t>
+          <t>Chapter 1 System Initialization</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-24-zhang-wei-bullying-kids-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-8</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Chapter 39 Leng Yan defeated!</t>
+          <t>Chapter 16 The Fog Thickens</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-39-leng-yan-defeated</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-23</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Chapter 54 Wrong place at the wrong time? or Right place at right time?</t>
+          <t>Chapter 31 Man-Breaker!</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-54-wrong-place-at-the-wrong-time-or-right-place-at-right-time</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-38</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Chapter 69 Ye Feng: A Dog on a Leash?</t>
+          <t>Chapter 46 Falling in Line R-18</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-69-ye-feng-a-dog-on-a-leash</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-53</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Chapter 84 System wants to step up the relationship?! (1)</t>
+          <t>Chapter 61 To Be One</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-84-system-wants-to-step-up-the-relationship-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-68</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Chapter 99 Lin Ruoxi dug her own grave?</t>
+          <t>Chapter 76 I Just Want to Beat You Senseless</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-99-lin-ruoxi-dug-her-own-grave</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-83</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Chapter 114 *Lin Ruoxi (2)*</t>
+          <t>Chapter 91 Soul Tearing Losses</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-114-lin-ruoxi-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-98</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Chapter 129 NSA?</t>
+          <t>Chapter 106 Before all Witnesses</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-129-nsa</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-113</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Chapter 144 *Lin Ruoxi’s Nightmare (1)*</t>
+          <t>Chapter 121 The Empress’ Secre</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-144-lin-ruoxis-nightmare-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-128</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Chapter 159 Tricking Zhao Hongyan! (2)</t>
+          <t>Chapter 136 Forgive Me!</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-159-tricking-zhao-hongyan-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-143</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Chapter 174 Xiong Mei came to the wolf’s den! Too late to regret? (1)</t>
+          <t>Chapter 151 Reporting Accomplishmen</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-174-xiong-mei-came-to-the-wolfs-den-too-late-to-regret-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-158</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Chapter 189 Qing She and Qing Cuiying learned their lessons? (1)</t>
+          <t>Chapter 166 Inevitable Wedding</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-189-qing-she-and-qing-cuiying-learned-their-lessons-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-173</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Chapter 204 *Use your mouth...*</t>
+          <t>Chapter 181 At Least 49.999.500.000</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-204-use-your-mouth</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-188</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Chapter 219 Zhang Wei fed up with Feng Ruoyan!</t>
+          <t>Chapter 196 Fatal Mistake Part 1</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-219-zhang-wei-fed-up-with-feng-ruoyan</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-203</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Chapter 234 Shopping Lingeries? Mo Chen abondened</t>
+          <t>Chapter 211 We get what we Ge</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-234-shopping-lingeries-mo-chen-abondened</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-218</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Chapter 249 Arrived in time? or late?</t>
+          <t>Chapter 226 Crossing the Tower Part 2</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-249-arrived-in-time-or-late</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-233</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Chapter 264 Zhang Wei unleashing his secret weapon!</t>
+          <t>Chapter 241 Three Ancient Secrets</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-264-zhang-wei-unleashing-his-secret-weapon</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-248</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Chapter 279 The heavenly mirror?</t>
+          <t>Chapter 256 A Man That Can’t Take a Hin</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-279-the-heavenly-mirror</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-263</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Chapter 294 Dragon Squad!</t>
+          <t>Chapter 271 To Arms!</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-294-dragon-squad</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-278</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Chapter 309 Sugary Mommy gained? Asking for a candy!</t>
+          <t>Chapter 286 Bestial Nuptials Part 2, R-18</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-309-sugary-mommy-gained-asking-for-a-candy</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-293</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Chapter 324 Concert (2)</t>
+          <t>Chapter 301 The Might of a Shameless Miscrean</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-324-concert-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-308</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Chapter 339 Discipline is important in life! Let the brother, enlighten you! (1)</t>
+          <t>Chapter 316 Do I Look Like An Organ Trader?</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-339-discipline-is-important-in-life-let-the-brother-enlighten-you-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-323</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Chapter 354 Xiong Rui’s despair, sister and mother abondens, the big brother embraces! (2)</t>
+          <t>Chapter 331 Eleventh Queen</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-354-xiong-ruis-despair-sister-and-mother-abondens-the-big-brother-embraces-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-338</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Chapter 369 Xiong Mingde: Dead?</t>
+          <t>Chapter 346 Qehremans True Identity</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-369-xiong-mingde-dead</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-353</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Chapter 384 Chen Yulan defeated!</t>
+          <t>Chapter 361 Asharas Seal</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-384-chen-yulan-defeated</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-368</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Chapter 399 *Possessive Zhang Wei? (1)*</t>
+          <t>Chapter 376 God Executing Immortal Sword</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-399-possessive-zhang-wei-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-383</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Chapter 414 Manipulating the Narrative! Magnanimous Zhang Wei! (2)</t>
+          <t>Chapter 391 Supreme Principles</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-414-manipulating-the-narrative-magnanimous-zhang-wei-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-398</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Chapter 429 Mo Yuxin came begging?</t>
+          <t>Chapter 406 Shifting Wind</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-429-mo-yuxin-came-begging</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-413</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Chapter 444 Sulking Secretary! (2)</t>
+          <t>Chapter 421 The Celebration Begins</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-444-sulking-secretary-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-428</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Chapter 459  Song Family Downfall! Brother's sister, is mine sister — Come hug!</t>
+          <t>Chapter 436 The Dandy’s Back</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-459-song-family-downfall-brothers-sister-is-mine-sister-come-hug</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-443</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Chapter 474 Ungrateful women! Taught lesson! Pegged Underwater! (1)</t>
+          <t>Chapter 451 Divide and Conquer Part 2</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-474-ungrateful-women-taught-lesson-pegged-underwater-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-458</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Chapter 489 Regretful Cai Wenxi!</t>
+          <t>Chapter 466 The Hog Primogen</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-489-regretful-cai-wenxi</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-473</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Chapter 504 Xueshan!</t>
+          <t>Chapter 481 Stately Jezebel</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-504-xueshan</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-488</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Chapter 10: *Yu Lei*</t>
+          <t>Chapter 496 With No Way Out Part 3, R-18</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-10-yu-lei</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-503</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Chapter 25: *Educating the celestial princess!*</t>
+          <t>Chapter 511 Profound Infiniteness Insigh</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-25-educating-the-celestial-princess</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-518</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Chapter 40 First Slave Acquired! (1)</t>
+          <t>Chapter 526 Master, Daughter, Disciple R-18</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-40-first-slave-acquired-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-533</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Chapter 55 A peaceful conversation with Leng Mei</t>
+          <t>Chapter 541 The Nun Beside the Pond</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-55-a-peaceful-conversation-with-leng-mei</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-548</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Chapter 70 Meeting with Zhao Hongyan! (1)</t>
+          <t>Chapter 556 I Will Send You Pictures</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-70-meeting-with-zhao-hongyan-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-563</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Chapter 85 System wants to step up the relationship?! (2)</t>
+          <t>Chapter 571 The Evil Bodys Counterattack!</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-85-system-wants-to-step-up-the-relationship-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-578</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Chapter 100 Lin Ruoxi and her dog!</t>
+          <t>Chapter 2 You Can Only Be My Woman R-18</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-100-lin-ruoxi-and-her-dog</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-9</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Chapter 115 *Lin Ruoxi (3)*</t>
+          <t>Chapter 17 Awakening the Sleeping Beauty</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-115-lin-ruoxi-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-24</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Chapter 130 Zhang Wei’s plot Armor: Bad Luck Halo?</t>
+          <t>Chapter 32 Hidden Dragon</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-130-zhang-weis-plot-armor-bad-luck-halo</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-39</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Chapter 145 *Lin Ruoxi’s Nightmare (2)*</t>
+          <t>Chapter 47 Be Careful of What You Pledge</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-145-lin-ruoxis-nightmare-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-54</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Chapter 160 Tricking Zhao Hongyan! (3)</t>
+          <t>Chapter 62 New Pawn</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-160-tricking-zhao-hongyan-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-69</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Chapter 175 Xiong Mei came to the wolf’s den! Too late to regret? (2)</t>
+          <t>Chapter 77 The Great Void Empire’s Tradition</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-175-xiong-mei-came-to-the-wolfs-den-too-late-to-regret-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-84</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Chapter 190 Qing She and Qing Cuiying learned their lessons? (2)</t>
+          <t>Chapter 92 Irreconcilable Contradictions</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-190-qing-she-and-qing-cuiying-learned-their-lessons-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-99</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Chapter 205 Ye Feng feeling betrayed!? (1)</t>
+          <t>Chapter 107 Lamb vs. Tiger</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-205-ye-feng-feeling-betrayed-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-114</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Chapter 220 Marriage Invitation!</t>
+          <t>Chapter 122 Teasing the Empress</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-220-marriage-invitation</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-129</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Chapter 235 Monks? and the Maschoist system?</t>
+          <t>Chapter 137 Soulmates R-18</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-235-monks-and-the-maschoist-system</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-144</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Chapter 250 Night Eagle vs Monks (1)</t>
+          <t>Chapter 152 Let me help you Relax R-18</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-250-night-eagle-vs-monks-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-159</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Chapter 265 Distressed Qian Lan? Need the man of the house?</t>
+          <t>Chapter 167 Grow my Son</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-265-distressed-qian-lan-need-the-man-of-the-house</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-174</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Chapter 280 Mo Chen is a M?</t>
+          <t>Chapter 182 Greetings Mother Part 1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-280-mo-chen-is-a-m</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-189</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Chapter 295 You too... Keep an eye her!</t>
+          <t>Chapter 197 Fatal Mistake Part 2</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-295-you-too-keep-an-eye-her</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-204</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Chapter 310 It was... Unexpected? Did you fell over a Di**?</t>
+          <t>Chapter 212 For the Common People!</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-310-it-was-unexpected-did-you-fell-over-a-di</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-219</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Chapter 325 Unexpected Birthday Present (1)</t>
+          <t>Chapter 227 Building Flaws and Hidden Dangers</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-325-unexpected-birthday-present-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-234</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Chapter 340 Big Brother’s might! Tames through Spanking!</t>
+          <t>Chapter 242 Nightmarish Cycle</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-340-big-brothers-might-tames-through-spanking</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-249</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Chapter 355 The submissive wife changes the tides, turns Rebellious overnight!</t>
+          <t>Chapter 257 If a Woman Doesn’t Want You…</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-355-the-submissive-wife-changes-the-tides-turns-rebellious-overnight</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-264</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Chapter 370 Guns! Rifles! Grenades! Machetes, and a box dedicated solely to knives!</t>
+          <t>Chapter 272 Catastrophe!</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-370-guns-rifles-grenades-machetes-and-a-box-dedicated-solely-to-knives</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-279</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Chapter 385 *Chen Yulan Fainted (2)*</t>
+          <t>Chapter 287 Peaceful Decade</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-385-chen-yulan-fainted-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-294</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Chapter 400 *Possessive Zhang Wei (2)*</t>
+          <t>Chapter 302 Mount Meru</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-400-possessive-zhang-wei-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-309</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Chapter 415 Manipulating the Narrative! Magnanimous Zhang Wei! (3)</t>
+          <t>Chapter 317 Asinine Waste</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-415-manipulating-the-narrative-magnanimous-zhang-wei-3</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-324</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Chapter 430 Chairman! Treat my wife as your second daughter!</t>
+          <t>Chapter 332 Calisto &amp; Vylsea</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-430-chairman-treat-my-wife-as-your-second-daughter</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-339</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Chapter 445 Old Man throws himself to his feets! Brother wants a Fairy instead!</t>
+          <t>Chapter 347 Death Conversion</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-445-old-man-throws-himself-to-his-feets-brother-wants-a-fairy-instead</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-354</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Chapter 460  Come, let Brother  teach you art of war in bed! (1)</t>
+          <t>Chapter 362 Ancestral Shadow</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-460-come-let-brother-teach-you-art-of-war-in-bed-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-369</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Chapter 475 *Kicked into the water! Brother making waves again!*</t>
+          <t>Chapter 377 One Punch</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-475-kicked-into-the-water-brother-making-waves-again</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-384</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Chapter 490 Regretful Cai Wenxi (2)</t>
+          <t>Chapter 392 Nascent Infiniteness Insigh</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-490-regretful-cai-wenxi-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-399</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Chapter 505 Xiong Mei want to fly? Brother helps with Brownies!</t>
+          <t>Chapter 407 The World Trees Wrath!</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-505-xiong-mei-want-to-fly-brother-helps-with-brownies</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-414</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Chapter 11: An unfortunate accident (1)</t>
+          <t>Chapter 422 Daphnes Ploy Part 1</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-11-an-unfortunate-accident-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-429</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Chapter 26: The Book of Desitny</t>
+          <t>Chapter 437 The Dynasty’s Favorite</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-26-the-book-of-desitny</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-444</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Chapter 41 First slave Acquired (2)</t>
+          <t>Chapter 452 The Alliance Collapses</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-41-first-slave-acquired-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-459</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Chapter 56 *Zhang Wei’s anger*</t>
+          <t>Chapter 467 Southern Hell Rebellion</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-56-zhang-weis-anger</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-474</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Chapter 71 Meeting with Zhao Hongyan! (2)</t>
+          <t>Chapter 482 Samsara Breaking Wheel</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-71-meeting-with-zhao-hongyan-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-489</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Chapter 86 System wants to step up the relationship?! (3)</t>
+          <t>Chapter 497 Self-Deceit R-18</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-86-system-wants-to-step-up-the-relationship-3</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-504</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Chapter 101 Lin Group</t>
+          <t>Chapter 512 Disciple Recruitment Ceremony</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-101-lin-group</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-519</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Chapter 116 *Lin Ruoxi (4)*</t>
+          <t>Chapter 527 Heavens Calamity Part 1</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-116-lin-ruoxi-4</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-534</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Chapter 131 Ye Feng getting beaten!?</t>
+          <t>Chapter 542 Lobbying the Warden</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-131-ye-feng-getting-beaten</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-549</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Chapter 146 Long Feng Qiye? Making a deal with system?</t>
+          <t>Chapter 557 The Meaning of Almighty</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-146-long-feng-qiye-making-a-deal-with-system</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-564</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Chapter 161 Molesting Zhao Hongyan (1)</t>
+          <t>Chapter 572 The End of the Omniarch</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-161-molesting-zhao-hongyan-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-579</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Chapter 176 Xiong Mei came to the wolf’s den! Too late to regret? (3)</t>
+          <t>Chapter 3 Restoration and Upgrade</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-176-xiong-mei-came-to-the-wolfs-den-too-late-to-regret-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-10</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Chapter 191 Divine Soul Scripture!</t>
+          <t>Chapter 18 Taming the Beast R-18</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-191-divine-soul-scripture</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-25</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Chapter 206 Ye Feng feeling betrayed!? (2)</t>
+          <t>Chapter 33 I Am Your Son-In-Law</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-206-ye-feng-feeling-betrayed-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-40</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Chapter 221 Leaving Chen Yulan alone?</t>
+          <t>Chapter 48 The System’s Return</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-221-leaving-chen-yulan-alone</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-55</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Chapter 236 Shadow Infiltrator: Sneaking inside woman’s trial room! (1)</t>
+          <t>Chapter 63 We Will Not Wait for Death!</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-236-shadow-infiltrator-sneaking-inside-womans-trial-room-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-70</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Chapter 251 Night Eagle vs Monks (2)</t>
+          <t>Chapter 78 Title at the End</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-251-night-eagle-vs-monks-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-85</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Chapter 266 Feng Ruoyan: Underwear thief?</t>
+          <t>Chapter 93 Preparing a Flawless Return</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-266-feng-ruoyan-underwear-thief</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-100</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Chapter 281 The Red Night: Willow Breeze Institute</t>
+          <t>Chapter 108 Give Me Justice</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-281-the-red-night-willow-breeze-institute</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-115</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Chapter 296 Distressed Sugar Mommy!</t>
+          <t>Chapter 123 Yvonne Voigh</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-296-distressed-sugar-mommy</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-130</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Chapter 311 Cancel the concert?</t>
+          <t>Chapter 138 Tribulation Poisons Destruction R-18</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-311-cancel-the-concert</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-145</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Chapter 326 Unexpected Birthday Present (2)</t>
+          <t>Chapter 153 Disturbed at the Worst of Times R-18</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-326-unexpected-birthday-present-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-160</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Chapter 341  "I tried to stop them but they were  too many" (1)</t>
+          <t>Chapter 168 Witness the Depth of my evil Heart Part 1</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-341-i-tried-to-stop-them-but-they-were-too-many-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-175</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Chapter 356 Sister-in-law — Feels the might of Heavenly Dragon! (1)</t>
+          <t>Chapter 183 Greetings Mother Part 2</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-356-sister-in-law-feels-the-might-of-heavenly-dragon-1</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-190</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Chapter 371 System Hugs Big brother’s thighs, for position of ’Wife’</t>
+          <t>Chapter 198 Surrendering the Country Part 1</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-371-system-hugs-big-brothers-thighs-for-position-of-wife</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-205</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Chapter 386 Warm Welcome? Committing Crime?</t>
+          <t>Chapter 213 Awakening Fiend</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-386-warm-welcome-committing-crime</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-220</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Chapter 401 Engagement! (1)</t>
+          <t>Chapter 228 First Sublimation</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-401-engagement-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-235</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Chapter 416 Core Formation Realm!</t>
+          <t>Chapter 243 Comprehending the Self</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-416-core-formation-realm</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-250</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Chapter 431 Zhang Wei’s weakness! Women tears!</t>
+          <t>Chapter 258 Bastard Nephew, It’s You!</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-431-zhang-weis-weakness-women-tears</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-265</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Chapter 446 Chaotic Hu Ning!</t>
+          <t>Chapter 273 Power of Calamity</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-446-chaotic-hu-ning</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-280</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Chapter 461 Come, let Brother teach you art of war in bed! (2)</t>
+          <t>Chapter 288 To the Rancid Turtles and Celestial Harlots</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-461-come-let-brother-teach-you-art-of-war-in-bed-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-295</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Chapter 476 Hey, black cat — Your master and I have reached a truce, so what's with the growling?</t>
+          <t>Chapter 303 Withering Leaves Part 1</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-476-hey-black-cat-your-master-and-i-have-reached-a-truce-so-whats-with-the-growling</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-310</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Chapter 491 Chaos; little girl, a visibly flustered woman, and a shirtless man</t>
+          <t>Chapter 318 Surrender your Tribe</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-491-chaos-little-girl-a-visibly-flustered-woman-and-a-shirtless-man</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-325</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Chapter 12: An unfortunate accident (2)</t>
+          <t>Chapter 333 Life Empowermen</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-12-an-unfortunate-accident-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-340</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Chapter 27: Rong Meili</t>
+          <t>Chapter 348 Irresistible Migh</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-27-rong-meili</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-355</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Chapter 42 The Dragon Lady</t>
+          <t>Chapter 363 Time to Go Home</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-42-the-dragon-lady</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-370</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Chapter 57 *Into the Shower (1)*</t>
+          <t>Chapter 378 The Systems True Owner</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-57-into-the-shower-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-385</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Chapter 72 An unknown entity?</t>
+          <t>Chapter 393 Legacy of the Six Realms Part 1</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-72-an-unknown-entity</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-400</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Chapter 87 The Reincarnation Land?</t>
+          <t>Chapter 408 Profane Stomp Judgemen</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-87-the-reincarnation-land</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-415</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Chapter 102 Wang Haoran Proposal!</t>
+          <t>Chapter 423 Daphnes Ploy Part 2</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-102-wang-haoran-proposal</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-430</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Chapter 117 Not Fit to run a Gang!</t>
+          <t>Chapter 438 Three Devil Emperors</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-117-not-fit-to-run-a-gang</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-445</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Chapter 132 Leng Yan Submitted!</t>
+          <t>Chapter 453 Entering the Sea Dream Temple</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-132-leng-yan-submitted</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-460</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Chapter 147 Mo Chen: X-ray Eyes and Photographic Memory?</t>
+          <t>Chapter 468 And Suddenly There Was Pandemonium</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-147-mo-chen-x-ray-eyes-and-photographic-memory</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-475</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Chapter 162 Molesting Zhao Hongyan (2)</t>
+          <t>Chapter 483 Forbidden Locks</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-162-molesting-zhao-hongyan-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-490</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Chapter 177 Want to back off now? Impossible!</t>
+          <t>Chapter 498 Removing Hidden Dangers</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-177-want-to-back-off-now-impossible</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-505</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Chapter 192 Lin Ruoxi’s escape plan! (1)</t>
+          <t>Chapter 513 Merge and Execution Demands</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-192-lin-ruoxis-escape-plan-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-520</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Chapter 207 *Lin Ruoxi’s Misunderstanding* (1)</t>
+          <t>Chapter 528 Heavens Calamity Part 2</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-207-lin-ruoxis-misunderstanding-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-535</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Chapter 222 Lying solves the problem?</t>
+          <t>Chapter 543 The Last God of War Part 1</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-222-lying-solves-the-problem</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-550</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Chapter 237 Shadow Infiltrator: Sneaking inside woman’s trial room! (2)</t>
+          <t>Chapter 558 End of Brotherhood</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-237-shadow-infiltrator-sneaking-inside-womans-trial-room-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-565</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Chapter 252 Night Eagle vs Monks (3)</t>
+          <t>Chapter 573 Birth of the Almighty Sovereign</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-252-night-eagle-vs-monks-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-580</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Chapter 267 Tianyi Entertainment! Lisa?</t>
+          <t>Chapter 4 Conquer the Few to Conquer the Many</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-267-tianyi-entertainment-lisa</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-11</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Chapter 282 Burning down the whole hospital!</t>
+          <t>Chapter 19 The Effectiveness of the Method R-18</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-282-burning-down-the-whole-hospital</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-26</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Chapter 297 The cunning Xie Meirong!</t>
+          <t>Chapter 34 If You Can Receive My Fis</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-297-the-cunning-xie-meirong</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-41</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Chapter 312 Intercepted by beauties?</t>
+          <t>Chapter 49 New Quest Forma</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-312-intercepted-by-beauties</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-56</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Chapter 327 *Unexpected Birthday Present* (3)</t>
+          <t>Chapter 64 A Contest of Impudence</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-327-unexpected-birthday-present-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-71</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Chapter 342  Xiong Mei's Hometown!</t>
+          <t>Chapter 79 The Emperors Wrath</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-342-xiong-meis-hometown</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-86</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Chapter 357 *Sister-in-law — Feels the might of Heavenly Dragon!* (2)</t>
+          <t>Chapter 94 Filial Piety</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-357-sister-in-law-feels-the-might-of-heavenly-dragon-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-101</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Chapter 372 Zhang Wei: The Basement is as big as heart</t>
+          <t>Chapter 109 Suppressing the Imperial Familys Arrogance</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-372-zhang-wei-the-basement-is-as-big-as-heart</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-116</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Chapter 387 Gift: Coffin and Red Envelope?</t>
+          <t>Chapter 124 Slap Them</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-387-gift-coffin-and-red-envelope</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-131</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Chapter 402 Engagement (2)</t>
+          <t>Chapter 139 The Harem Gathers Part 1</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-402-engagement-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-146</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Chapter 417 "Hehe... You cultivate in peace brother... I’ll take care of your woman"</t>
+          <t>Chapter 154 Love Token</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-417-hehe-you-cultivate-in-peace-brother-ill-take-care-of-your-woman</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-161</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Chapter 432  Mo Yuxin turned Maid? Dances on Brother's Palm! Mops the Floor! (1)</t>
+          <t>Chapter 169 Witness the Depth of my evil Heart Part 2</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-432-mo-yuxin-turned-maid-dances-on-brothers-palm-mops-the-floor-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-176</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Chapter 447 ’Super Cool Auntie Jiajia’ or ’Hey you, lady with the snacks’?</t>
+          <t>Chapter 184 Greetings Mother Part 3</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-447-super-cool-auntie-jiajia-or-hey-you-lady-with-the-snacks</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-191</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Chapter 462 The Concubine is Concerned about her Freedom!</t>
+          <t>Chapter 199 Surrendering the Country Part 2</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-462-the-concubine-is-concerned-about-her-freedom</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-206</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Chapter 477 Brother Feeling Weary from Night Exercises! Needs Massage!</t>
+          <t>Chapter 214 Always Number One</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-477-brother-feeling-weary-from-night-exercises-needs-massage</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-221</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Chapter 492 Husband of his girlfriend came early!? Had to run!</t>
+          <t>Chapter 229 Kill the Useless, Enslave the Useful</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-492-husband-of-his-girlfriend-came-early-had-to-run</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-236</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Chapter 13: An unfortunate accident (3)</t>
+          <t>Chapter 244 Forced into a Dead End</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-13-an-unfortunate-accident-3</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-251</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Chapter 28: Acquired New Skills</t>
+          <t>Chapter 259 Ascended Titan Form</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-28-acquired-new-skills</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-266</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Chapter 43 Striking a deal with Long Yufei (1)</t>
+          <t>Chapter 274 World Devourer</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-43-striking-a-deal-with-long-yufei-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-281</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Chapter 58 *Into the Shower (2)*</t>
+          <t>Chapter 289 Celestial Church vs. Infernal Battalion</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-58-into-the-shower-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-296</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Chapter 73 Sending Ye Feng to Jail!? (1)</t>
+          <t>Chapter 304 Withering Leaves Part 2</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-73-sending-ye-feng-to-jail-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-311</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Chapter 88 The Truth of Hell and Heaven! (1)</t>
+          <t>Chapter 319 Dao Law</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-88-the-truth-of-hell-and-heaven-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-326</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Chapter 103 Wang Haoran beaten like a pig!</t>
+          <t>Chapter 334 Resistance is Futile</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-103-wang-haoran-beaten-like-a-pig</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-341</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Chapter 118 Opening a company...?</t>
+          <t>Chapter 349 Death Precognition</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-118-opening-a-company</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-356</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Chapter 133 Delaying Wang Family! Costume play? (1)</t>
+          <t>Chapter 364 Sneaking into the House</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-133-delaying-wang-family-costume-play-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-371</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Chapter 148 Chaos in Wang Family! (1)</t>
+          <t>Chapter 379 Law Seeds</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-148-chaos-in-wang-family-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-386</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Chapter 163 You want to become a star...?</t>
+          <t>Chapter 394 Legacy of the Six Realms Part 2</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-163-you-want-to-become-a-star</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-401</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Chapter 178 *The Trapped Xiong Mei* (1)</t>
+          <t>Chapter 409 Profane Stomp Judgment Part 2</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-178-the-trapped-xiong-mei-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-416</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Chapter 193 Lin Ruoxi escape plan! (2)</t>
+          <t>Chapter 424 Elimination</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-193-lin-ruoxi-escape-plan-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-431</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Chapter 208 *Lin Ruoxi’s Misunderstanding!* (2)</t>
+          <t>Chapter 439 The Princes Gather</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-208-lin-ruoxis-misunderstanding-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-446</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Chapter 223 Mr. Poo!</t>
+          <t>Chapter 454 The Moon Lords Infinite Lus</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-223-mr-poo</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-461</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Chapter 238 Mo Chen lost himself!?</t>
+          <t>Chapter 469 Educational Success</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-238-mo-chen-lost-himself</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-476</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Chapter 253 Sadist Monk?</t>
+          <t>Chapter 484 I Shall Reward You...With a Glorious Death!</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-253-sadist-monk</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-491</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Chapter 268 "I prefer them young, they are easy to train!"</t>
+          <t>Chapter 499 Seventh Sea Dream Elder</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-268-i-prefer-them-young-they-are-easy-to-train-1697853816585</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-506</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Chapter 283 Gained X-Ray vision!</t>
+          <t>Chapter 514 Death!</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-283-gained-x-ray-vision</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-521</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Chapter 298 The Mystery of Northern Province (1)</t>
+          <t>Chapter 529 Myriad Dreams Valley vs. Titan Domain Part 1</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-298-the-mystery-of-northern-province-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-536</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Chapter 313 Brother Proposes offers Twice the money, and warmth at night!</t>
+          <t>Chapter 544 The Last God of War Part 2</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-313-brother-proposes-offers-twice-the-money-and-warmth-at-night</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-551</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Chapter 328 Suprise (1)</t>
+          <t>Chapter 559 Plucking the Thorns Part 1</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-328-suprise-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-566</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Chapter 343 Sister-in-law: Free wife? Easy Life! (1)</t>
+          <t>Chapter 574 If Challenging Omnipotence is a Paradox...</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-343-sister-in-law-free-wife-easy-life-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-581</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Chapter 358 *Sister-in-law — Feels the might of Heavenly Dragon!* (3)</t>
+          <t>Chapter 5 Good Girls Get it, Bad Girls Beg For It R-18</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-358-sister-in-law-feels-the-might-of-heavenly-dragon-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-12</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Chapter 373 Zhang Wei busted! Live audition for playing distressed concubine? (1)</t>
+          <t>Chapter 20 My Worth to You</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-373-zhang-wei-busted-live-audition-for-playing-distressed-concubine-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-27</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Chapter 388 Men with wives and daughters should think twice before preying on someone else’s sister!</t>
+          <t>Chapter 35 Did You Prepare the Dower?</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-388-men-with-wives-and-daughters-should-think-twice-before-preying-on-someone-elses-sister</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-42</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Chapter 403 Engagement (3)</t>
+          <t>Chapter 50 Last Preparations and Departure</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-403-engagement-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-57</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Chapter 418 Chen Yulan turned sage? Got Humbled by brother!</t>
+          <t>Chapter 65 Scapegoat Alto</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-418-chen-yulan-turned-sage-got-humbled-by-brother</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-72</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Chapter 433  Mo Yuxin turned Maid? Dances on Brother's Palm! Mops the Floor! (2)</t>
+          <t>Chapter 80 Holy Flame Seal</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-433-mo-yuxin-turned-maid-dances-on-brothers-palm-mops-the-floor-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-87</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Chapter 448 Begs for Help! Slaves the sleeping Beauty! Brother starts the Extortion Mission!</t>
+          <t>Chapter 95 Reward</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-448-begs-for-help-slaves-the-sleeping-beauty-brother-starts-the-extortion-mission</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-102</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Chapter 463 The last time I trusted you, I ended up — clothless!</t>
+          <t>Chapter 110 You can only Blame Yourself</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-463-the-last-time-i-trusted-you-i-ended-up-clothless</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-117</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Chapter 478 Women Empowerment! Lady Tang shows the power of Legs! Brother enjoys the massage!</t>
+          <t>Chapter 125 This is how you tame the Unruly</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-478-women-empowerment-lady-tang-shows-the-power-of-legs-brother-enjoys-the-massage</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-132</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Chapter 493 Zhang Wei Disappointed! Bai Wenling's Boyfriend!</t>
+          <t>Chapter 140 The Harem Gathers Part 2</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-493-zhang-wei-disappointed-bai-wenlings-boyfriend</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-147</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Chapter 14: The Villain System</t>
+          <t>Chapter 155 I Prepared him for You</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-14-the-villain-system</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-162</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Chapter 29: A trapped bird...</t>
+          <t>Chapter 170 Collapsing World</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-29-a-trapped-bird</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-177</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Chapter 44 Striking a deal with Long Yufei (2)</t>
+          <t>Chapter 185 Graced Because I Exis</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-44-striking-a-deal-with-long-yufei-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-192</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Chapter 59 Zhang Wei tired of Playing around with Leng Mei?</t>
+          <t>Chapter 200 Mutual-Obligation Contrac</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-59-zhang-wei-tired-of-playing-around-with-leng-mei</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-207</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Chapter 74 Sending Ye Feng to Jail!? (2)</t>
+          <t>Chapter 215 I dont want your Abdication</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-74-sending-ye-feng-to-jail-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-222</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Chapter 89 The Truth of Hell and Heaven! (2)</t>
+          <t>Chapter 230 Where is that Clown Coming From? Part 1</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-89-the-truth-of-hell-and-heaven-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-237</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Chapter 104 Taking a Taxi...?</t>
+          <t>Chapter 245 Third Lineage</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-104-taking-a-taxi</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-252</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Chapter 119 Accidentally hit his hands on scissors? Treat Yu Lei’s mind?</t>
+          <t>Chapter 260 Unparalleled Anomaly</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-119-accidentally-hit-his-hands-on-scissors-treat-yu-leis-mind</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-267</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Chapter 134 Delaying Wang Family! Costume play? (2)</t>
+          <t>Chapter 275 Contracted Bail Part 1</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-134-delaying-wang-family-costume-play-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-282</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Chapter 149 Chaos in Wang Family (2)</t>
+          <t>Chapter 290 Unyielding Spiri</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-149-chaos-in-wang-family-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-297</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Chapter 164 Mo Chen humiliated by guards!?</t>
+          <t>Chapter 305 Coping with the Change</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-164-mo-chen-humiliated-by-guards</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-312</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Chapter 179 *The Trapped Xiong Mei* (2)</t>
+          <t>Chapter 320 Konrad to the Rescue</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-179-the-trapped-xiong-mei-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-327</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Chapter 194 Lin Ruoxi escape plan! (3)</t>
+          <t>Chapter 335 Horrifying Turn of Events</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-194-lin-ruoxi-escape-plan-3</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-342</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Chapter 209 Ye Feng’s bad luck (1)</t>
+          <t>Chapter 350 Proxy Showdown</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-209-ye-fengs-bad-luck-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-357</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Chapter 224 *Teaching the secretary to be a M?* (1)</t>
+          <t>Chapter 365 Chase me, Mother Part 1</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-224-teaching-the-secretary-to-be-a-m-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-372</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Chapter 239 Who is it? Your father!</t>
+          <t>Chapter 380 Ashara’s Retribution</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-239-who-is-it-your-father</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-387</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Chapter 254 A cruel realization! (1)</t>
+          <t>Chapter 395 Legacy of the Six Realms Part 3</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-254-a-cruel-realization-1</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-402</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Chapter 269 Interns? Free labor, you say?</t>
+          <t>Chapter 410 Profane Stomp Judgment Part 3</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-269-interns-free-labor-you-say</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-417</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Chapter 284 Got Caught!</t>
+          <t>Chapter 425 Soaked Consort Selection</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-284-got-caught</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-432</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Chapter 299 The Mystery of Northern Province (2)</t>
+          <t>Chapter 440 Strife of Princes Part 1</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-299-the-mystery-of-northern-province-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-447</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Chapter 314 Unknown posionous bug!</t>
+          <t>Chapter 455 Moon Lord or Moon Pawn?</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-314-unknown-posionous-bug</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-462</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Chapter 329 Suprise! (2)</t>
+          <t>Chapter 470 Silent Blade Pavilion</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-329-suprise-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-477</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Chapter 344 Meeting Mother-in-law!</t>
+          <t>Chapter 485 Trampling All Primogens With Irresistible Might!</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-344-meeting-mother-in-law</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-492</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Chapter 359 Lisa thrown outside? Take Revenge from Xu Qing! (1)</t>
+          <t>Chapter 500 Negation Girl</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-359-lisa-thrown-outside-take-revenge-from-xu-qing-1</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-507</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Chapter 374 Zhang Wei busted! Live audition for playing distressed concubine? (2)</t>
+          <t>Chapter 515 Exterminating the Primal Sun Sec</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-374-zhang-wei-busted-live-audition-for-playing-distressed-concubine-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-522</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Chapter 389 Zhang Wei’s anger — Nading the little milk factory!</t>
+          <t>Chapter 530 Belos</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-389-zhang-weis-anger-nading-the-little-milk-factory</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-537</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Chapter 404 Yu Tian</t>
+          <t>Chapter 545 Era of Diabolism</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-404-yu-tian</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-552</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Chapter 419 Returning Back! Third daughter?</t>
+          <t>Chapter 560 When Love Still Breeds</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-419-returning-back-third-daughter</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-567</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Chapter 434 Hardworking maid! Greets the Little Brother ’Hi’</t>
+          <t>Chapter 575...True Supremacy is Also a Paradox</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-434-hardworking-maid-greets-the-little-brother-hi</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-582</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Chapter 449 Begs for Help! Slaves the sleeping Beauty! Brother starts the Extortion Mission! (2)</t>
+          <t>Chapter 6 Terrifying Subjugating Power</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-449-begs-for-help-slaves-the-sleeping-beauty-brother-starts-the-extortion-mission-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-13</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Chapter 464 The Heavenly Emperor and Moon Goddess! (1)</t>
+          <t>Chapter 21 Break!</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-464-the-heavenly-emperor-and-moon-goddess-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-28</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Chapter 479 Meeting the Angry Bird again?</t>
+          <t>Chapter 36 Iliana’s Night R-18</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-479-meeting-the-angry-bird-again</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-43</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Chapter 494 Yatches!</t>
+          <t>Chapter 51 The Nobility Gathers</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/chapter-494-yatches</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-58</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Chapter 15: Zhang Wei caught molesting a little girl!</t>
+          <t>Chapter 66 Then Lets Carry On</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-15-zhang-wei-caught-molesting-a-little-girl</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-73</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Chapter 30: *Beautiful Celebrity Neighbour*</t>
+          <t>Chapter 81 Concessions</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-30-beautiful-celebrity-neighbour</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-88</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Chapter 45 The End of One Battle, the Start of Another (1)</t>
+          <t>Chapter 96 Let him take care of you R-18</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>https://novelcenter.net/novel-book/manipulative-harem-god/cchapter-45-the-end-of-one-battle-the-start-of-another-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-103</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Chapter 60 Tricking Leng Mei (1)</t>
+          <t>Chapter 111 Exposed</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-60-tricking-leng-mei-1</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-118</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Chapter 75 "You already have a plan?"</t>
+          <t>Chapter 126 The Boxs Use</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-75-you-already-have-a-plan</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-133</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Chapter 90 System narrowly escaped!</t>
+          <t>Chapter 141 A Name that Suits You</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-90-system-narrowly-escaped</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-148</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Chapter 105 Ye Feng is a killer?</t>
+          <t>Chapter 156 Drops of Heaven</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-105-ye-feng-is-a-killer</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-163</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Chapter 120 Miracle Doctor!</t>
+          <t>Chapter 171 Please help Me! Part 1</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-120-miracle-doctor</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-178</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Chapter 135 *In the bureau* (1)</t>
+          <t>Chapter 186 I Lied!</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-135-in-the-bureau-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-193</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Chapter 150 Chaos in Wang Family (3)</t>
+          <t>Chapter 201 Quasi-Fiend Creation</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-150-chaos-in-wang-family-3</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-208</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Chapter 165 Special Abilities?</t>
+          <t>Chapter 216 Olrich’s Six Rules</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-165-special-abilities</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-223</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Chapter 180 *The Trapped Xiong Mei* (3)</t>
+          <t>Chapter 231 Where is That Clown Coming From? Part 2</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-180-the-trapped-xiong-mei-3</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-238</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Chapter 195 Making a deal with Ye Feng!</t>
+          <t>Chapter 246 The Higher Realms’ Turmoil</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/cchapter-195-making-a-deal-with-ye-feng</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-253</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Chapter 210 Ye Feng’s bad luck! (2)</t>
+          <t>Chapter 261 Ancestral Glory: Nine Luminaries</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-210-ye-fengs-bad-luck-2</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-268</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Chapter 225 *Teaching the secretary to be a M?* (2)</t>
+          <t>Chapter 276 Contracted Bail Part 2</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-225-teaching-the-secretary-to-be-a-m-2</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-283</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Chapter 240 Earth and Sky List!</t>
+          <t>Chapter 291 Valkyrie Armors</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/cchapter-240-earth-and-sky-list</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-298</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Chapter 255 A cruel realization (2)</t>
+          <t>Chapter 306 Human Blood Burning</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/cchapter-255-a-cruel-realization-2</t>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-313</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Chapter 270 Lin Ruoxi is on work?</t>
+          <t>Chapter 321 The Fate of a Foolish Prince Consor</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-270-lin-ruoxi-is-on-work</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-328</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Chapter 285 Melting metal! Women’s eyes are really scary!</t>
+          <t>Chapter 336 Anti-Chthonian Abilities</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-285-melting-metal-womens-eyes-are-really-scary</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-343</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Chapter 300 Who is this ’Canary’ now?</t>
+          <t>Chapter 351 Beseeching Survival</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-300-who-is-this-canary-now</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-358</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Chapter 315 Mu Han</t>
+          <t>Chapter 366 Chase me, Mother Part 2</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-315-mu-han</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-373</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Chapter 330 Giving Green Hat to Sun Qiang!</t>
+          <t>Chapter 381 Birth of the Chtonian Race!</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-330-giving-green-hat-to-sun-qiang</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-388</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Chapter 345 Rewarding Father-in-law for his hard work?</t>
+          <t>Chapter 396 The Omniarch Spurts Blood</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-345-rewarding-father-in-law-for-his-hard-work</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-403</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Chapter 360 Lisa thrown outside? Take Revenge from Xu Qing! (2)</t>
+          <t>Chapter 411 Seizing the World</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-360-lisa-thrown-outside-take-revenge-from-xu-qing-2</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-418</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Chapter 375 A man of Unconventional rules!</t>
+          <t>Chapter 426 One Thousand Folds R-18</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-375-a-man-of-unconventional-rules</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-433</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Chapter 390 Loli running for her life! Two Predators chasing her in the middle of the night!</t>
+          <t>Chapter 441 Strife of the Princes Part 2</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-390-loli-running-for-her-life-two-predators-chasing-her-in-the-middle-of-the-night</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-448</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Chapter 405 Long Tian!</t>
+          <t>Chapter 456 Primogen Clash</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-405-long-tian</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-463</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Chapter 420 Annoyed Zhang Wei! (1)</t>
+          <t>Chapter 471 Zone Seperation</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-420-annoyed-zhang-wei-1</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-478</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Chapter 435  Falls over Big Brother's Legs! Begs for Mercy!</t>
+          <t>Chapter 486 Old Enemies Gather</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-435-falls-over-big-brothers-legs-begs-for-mercy</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-493</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Chapter 450 Accidentally grabbed the wrong bird?</t>
+          <t>Chapter 501 Your Disciple Greets You!</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>https://fast.novelupdates.net/book/manipulative-harem-god/chapter-450-accidentally-grabbed-the-wrong-bird</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-508</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Chapter 465 Xuan Yuanshi is back! Emperor Zhang?</t>
+          <t>Chapter 516 Regret My Ass! Part 1</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-465-xuan-yuanshi-is-back-emperor-zhang</t>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-523</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Chapter 480 Long Tian saved?</t>
+          <t>Chapter 531 Immemorial Titans</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>https://novelbjn.novelupdates.net/book/manipulative-harem-god/chapter-480-long-tian-saved</t>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-538</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Chapter 495 Peaceful Sloth!? Having brain strokes without brain!</t>
+          <t>Chapter 546 God Executing Immortal Ar</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>https://lightnovel.novelupdates.net/book/manipulative-harem-god/chapter-495-peaceful-sloth-having-brain-strokes-without-brain</t>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-553</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Chapter 561 Sinking in Flower Buds Part 1, R-18</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-568</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Chapter 576: Side Chapter I: Spatio-Temporal Celebration</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-583</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Chapter 7 Infiltrating the Embroidery Departmen</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Chapter 22 Always Be Wary of the Oriole</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Chapter 37 Mother-In-Laws Migh</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-44</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Chapter 52 Might vs Skills</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-59</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Chapter 67 Rising Tensions</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-74</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Chapter 82 Escape</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-89</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Chapter 97 The Cardinal Sin R-18</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-104</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Chapter 112 Father and son-in-law Bonding</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-119</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Chapter 127 Tribulation Poison</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-134</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Chapter 142 Hekere</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-149</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Chapter 157 Perfect Polygamy Ar</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-164</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Chapter 172 Please help Me! Part 2</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-179</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Chapter 187 Mortal Realm Godhood Requirement Part 1</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-194</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Chapter 202 Diving into the wolf’s Den</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-209</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Chapter 217 Kill! Kill! Kill!</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-224</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Chapter 232 Black and White Crystals?</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-239</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Chapter 247 Reward?</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-254</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Chapter 262 He Deserves To Be Damned</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-269</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Chapter 277 Give Them an Inch...</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-284</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Chapter 292 Valkyrie Judgmen</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-299</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Chapter 307 Into the Land of Organized Anarchy</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-314</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Chapter 322 Subduing the Northern Khan Part 1</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-329</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Chapter 337 Unexpected Company</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-344</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Chapter 352 Defiling Ilkaalt Part 1, R-18</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-359</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Chapter 367 A Day of Tribulations</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-374</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Chapter 382 Myriad World Immortal Blood</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-389</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Chapter 397 *Title At the End*</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-404</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Chapter 412 Old Acquaintances</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-419</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Chapter 427 Moooo R-18</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-434</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Chapter 442 Absolutely Right!</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-449</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Chapter 457 First Goddess: Tara</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-464</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Chapter 472 What do you Want?</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-479</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Chapter 487 Subatomic Clash</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-494</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Chapter 502 Dad...I’m Scared</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-509</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Chapter 517 Regret My Ass! Part 2</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-524</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Chapter 532 Heart Tribulations</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-539</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Chapter 547 Nothingness Seal</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-554</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Chapter 562 Sinking in Flower Buds Part 2, R-18</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-569</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Chapter 577: Side Chapter II: Truth Behind White Dragon Heart</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-584</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Chapter 8 Bargaining for a Date</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Chapter 23 Smash Them All!</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Chapter 38 Miniature Skeleton</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-45</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Chapter 53 Tes</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-60</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Chapter 68 Koloman’s Pligh</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-75</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Chapter 83 Captured</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-90</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Chapter 98 Anyone but Her</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-105</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Chapter 113 Returning to the Inner Court Part 1</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-120</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Chapter 128 Konrad vs. Yvonne Part 1</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-135</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Chapter 143 Summoning the Familiar</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-150</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Chapter 158 Introduced to the Imperial Family</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-165</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Chapter 173 Please help Me Part 3, R-18</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-180</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Chapter 188 Mortal Realm Godhood Requirement Part 2</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-195</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Chapter 203 Three for the Price of One Part 1, R-18</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-210</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Chapter 218 Believe in Me</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-225</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Chapter 233 Perfect Integration, Artificial Nephilim!</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-240</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Chapter 248 The Final Area</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-255</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Chapter 263 The Lord Be Praised!</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-270</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Chapter 278 Spanking Rebelliousness out of the Dowager R-18</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-285</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Chapter 293 Hidden Moon Pavilion</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-300</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Chapter 308 Death is Not the End Part 1</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-315</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Chapter 323 Subduing the Northern Khan Part 2</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-330</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Chapter 338 Big-Breasted Lunatic</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-345</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Chapter 353 Defiling Ilkaalt Part 2, R-18</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-360</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Chapter 368 SOMEONE TELL ME WHY?!</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-375</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Chapter 383 The Flames of War Erup</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-390</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Chapter 398 Birth of the Devil</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-405</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Chapter 413 Merging Life and Death Part 1</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>https://novelcenter.net/novel-book/profane-prince-of-domination/chapter-420</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Chapter 428 Unrivaled Meal R-18</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-435</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Chapter 443 Grand Devil Realm</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-450</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Chapter 458 High Maintenance Wife</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-465</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Chapter 473 Im Spoken For</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-480</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Chapter 488 Invincible Across the Three Realms</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-495</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Chapter 503 Dont Mess With Us!</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>https://lightnovel.novelupdates.net/book/profane-prince-of-domination/chapter-510</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Chapter 518 Destroy it All!</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-525</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Chapter 533 Booted</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-540</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Chapter 548 Clash of Titans</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-555</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Chapter 563 Void Mirror Physique Owner</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>https://novelbjn.novelupdates.net/book/profane-prince-of-domination/chapter-570</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Chapter 578: Side Chapter III: Remastered Wedding</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>https://fast.novelupdates.net/book/profane-prince-of-domination/chapter-585</t>
         </is>
       </c>
     </row>
